--- a/excel/SELECT_Excel_Intermediate/01_Worksheets/04_Date_Functions.xlsx
+++ b/excel/SELECT_Excel_Intermediate/01_Worksheets/04_Date_Functions.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\ByteSize Trainings\Topics\Data Consolidation and Analysis using Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/curriculum/excel/Excel_Intermediate/01_Worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD72E5-AE73-4DD2-8E49-EA94EB7F472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2325106F-405F-8942-8093-934BEC1D7A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19950" windowHeight="10141" firstSheet="1" activeTab="3" xr2:uid="{74146313-7F8C-A944-BB4A-F2A7C4F1CB8E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13120" xr2:uid="{74146313-7F8C-A944-BB4A-F2A7C4F1CB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATEVALUE" sheetId="2" r:id="rId1"/>
-    <sheet name="EDATE_EOMONTH" sheetId="3" r:id="rId2"/>
-    <sheet name="DATEDIF" sheetId="4" r:id="rId3"/>
-    <sheet name="WORKDAY" sheetId="5" r:id="rId4"/>
-    <sheet name="NETWORKDAY" sheetId="6" r:id="rId5"/>
+    <sheet name="MONTHS FROM YEARS" sheetId="7" r:id="rId2"/>
+    <sheet name="EDATE_EOMONTH" sheetId="3" r:id="rId3"/>
+    <sheet name="DATEDIF" sheetId="4" r:id="rId4"/>
+    <sheet name="WORKDAY" sheetId="5" r:id="rId5"/>
+    <sheet name="NETWORKDAY" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t xml:space="preserve">   07-04-2016 </t>
   </si>
@@ -328,6 +329,15 @@
   </si>
   <si>
     <t>Payment Date (with holidays)</t>
+  </si>
+  <si>
+    <t>Difference in Years and Months</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>5 YEARS 3 MONTHS</t>
   </si>
 </sst>
 </file>
@@ -335,7 +345,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -453,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,12 +474,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -482,6 +492,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -799,18 +810,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763120B-5EC6-004D-ABAD-52819119A07C}">
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="20.65" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
@@ -821,187 +832,187 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -1015,22 +1026,335 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930793BF-C59E-3D4A-8F76-B8092582F238}">
+  <dimension ref="B1:D32"/>
+  <sheetViews>
+    <sheetView zoomScale="243" zoomScaleNormal="243" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="16">
+        <v>38627</v>
+      </c>
+      <c r="C2" s="16">
+        <v>40574</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="16">
+        <v>38631</v>
+      </c>
+      <c r="C3" s="16">
+        <v>43307</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="16">
+        <v>38635</v>
+      </c>
+      <c r="C4" s="16">
+        <v>40154</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>38639</v>
+      </c>
+      <c r="C5" s="16">
+        <v>41172</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="16">
+        <v>38643</v>
+      </c>
+      <c r="C6" s="16">
+        <v>44849</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="16">
+        <v>38647</v>
+      </c>
+      <c r="C7" s="16">
+        <v>45136</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="16">
+        <v>38651</v>
+      </c>
+      <c r="C8" s="16">
+        <v>40892</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="16">
+        <v>38655</v>
+      </c>
+      <c r="C9" s="16">
+        <v>39298</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>38659</v>
+      </c>
+      <c r="C10" s="16">
+        <v>39541</v>
+      </c>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="16">
+        <v>38663</v>
+      </c>
+      <c r="C11" s="16">
+        <v>42145</v>
+      </c>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="16">
+        <v>38667</v>
+      </c>
+      <c r="C12" s="16">
+        <v>39078</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="16">
+        <v>38671</v>
+      </c>
+      <c r="C13" s="16">
+        <v>39379</v>
+      </c>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="16">
+        <v>38675</v>
+      </c>
+      <c r="C14" s="16">
+        <v>39037</v>
+      </c>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="16">
+        <v>38679</v>
+      </c>
+      <c r="C15" s="16">
+        <v>39350</v>
+      </c>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="16">
+        <v>38683</v>
+      </c>
+      <c r="C16" s="16">
+        <v>38935</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="16">
+        <v>38687</v>
+      </c>
+      <c r="C17" s="16">
+        <v>42950</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="16">
+        <v>38691</v>
+      </c>
+      <c r="C18" s="16">
+        <v>43410</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="16">
+        <v>38695</v>
+      </c>
+      <c r="C19" s="16">
+        <v>45105</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="16">
+        <v>38699</v>
+      </c>
+      <c r="C20" s="16">
+        <v>45000</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="16">
+        <v>38703</v>
+      </c>
+      <c r="C21" s="16">
+        <v>39808</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="16">
+        <v>38707</v>
+      </c>
+      <c r="C22" s="16">
+        <v>44417</v>
+      </c>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="16">
+        <v>38711</v>
+      </c>
+      <c r="C23" s="16">
+        <v>41772</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="16">
+        <v>38715</v>
+      </c>
+      <c r="C24" s="16">
+        <v>41681</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="16">
+        <v>38719</v>
+      </c>
+      <c r="C25" s="16">
+        <v>43277</v>
+      </c>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="16">
+        <v>38723</v>
+      </c>
+      <c r="C26" s="16">
+        <v>38760</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>38727</v>
+      </c>
+      <c r="C27" s="16">
+        <v>40106</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
+        <v>38731</v>
+      </c>
+      <c r="C28" s="16">
+        <v>43046</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <v>38735</v>
+      </c>
+      <c r="C29" s="16">
+        <v>39097</v>
+      </c>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>38739</v>
+      </c>
+      <c r="C30" s="16">
+        <v>44603</v>
+      </c>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <v>38743</v>
+      </c>
+      <c r="C31" s="16">
+        <v>41717</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
+        <v>38747</v>
+      </c>
+      <c r="C32" s="16">
+        <v>40602</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EA35FB-A318-1947-8504-A5CE8798AEA6}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1059,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41517</v>
       </c>
@@ -1083,7 +1407,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>41970</v>
       </c>
@@ -1117,7 +1441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41585</v>
       </c>
@@ -1148,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>41792</v>
       </c>
@@ -1171,7 +1495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41487</v>
       </c>
@@ -1194,7 +1518,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>41957</v>
       </c>
@@ -1217,7 +1541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>41591</v>
       </c>
@@ -1240,7 +1564,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>41947</v>
       </c>
@@ -1263,7 +1587,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>41969</v>
       </c>
@@ -1286,7 +1610,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>41828</v>
       </c>
@@ -1309,7 +1633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>41979</v>
       </c>
@@ -1332,7 +1656,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>41622</v>
       </c>
@@ -1355,7 +1679,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>41609</v>
       </c>
@@ -1378,7 +1702,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>41954</v>
       </c>
@@ -1401,7 +1725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>41711</v>
       </c>
@@ -1424,7 +1748,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>41306</v>
       </c>
@@ -1447,7 +1771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>41284</v>
       </c>
@@ -1470,7 +1794,7 @@
         <v>79.95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>41958</v>
       </c>
@@ -1493,7 +1817,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>41620</v>
       </c>
@@ -1516,7 +1840,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>41965</v>
       </c>
@@ -1539,7 +1863,7 @@
         <v>68.849999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>41830</v>
       </c>
@@ -1562,7 +1886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>41635</v>
       </c>
@@ -1585,7 +1909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>41545</v>
       </c>
@@ -1608,7 +1932,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>41579</v>
       </c>
@@ -1636,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B78E48-EBCA-5743-902F-04AC1198BF46}">
   <dimension ref="B1:D29"/>
   <sheetViews>
@@ -1644,14 +1968,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="20.65" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>61</v>
       </c>
@@ -1662,12 +1986,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>40262</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>40355</v>
       </c>
@@ -1680,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>40418</v>
       </c>
@@ -1693,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>40623</v>
       </c>
@@ -1706,7 +2030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>40771</v>
       </c>
@@ -1719,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>40778</v>
       </c>
@@ -1732,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>41336</v>
       </c>
@@ -1745,7 +2069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>41572</v>
       </c>
@@ -1758,7 +2082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>41576</v>
       </c>
@@ -1771,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>41606</v>
       </c>
@@ -1784,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>41799</v>
       </c>
@@ -1797,7 +2121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>41821</v>
       </c>
@@ -1810,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>41848</v>
       </c>
@@ -1823,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>42142</v>
       </c>
@@ -1836,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>42256</v>
       </c>
@@ -1849,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>42524</v>
       </c>
@@ -1862,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>43032</v>
       </c>
@@ -1875,7 +2199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>43090</v>
       </c>
@@ -1888,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>43274</v>
       </c>
@@ -1901,7 +2225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>43302</v>
       </c>
@@ -1914,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>43412</v>
       </c>
@@ -1927,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>43435</v>
       </c>
@@ -1940,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>43506</v>
       </c>
@@ -1953,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>43608</v>
       </c>
@@ -1966,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>43813</v>
       </c>
@@ -1979,7 +2303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>43821</v>
       </c>
@@ -1992,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>44138</v>
       </c>
@@ -2005,7 +2329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>44492</v>
       </c>
@@ -2026,22 +2350,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4ED94-4BE0-6B47-9BAC-F27BEAE3D54E}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F2" s="22" t="s">
         <v>93</v>
       </c>
@@ -2049,7 +2373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="20.65" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2060,7 +2384,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>44927</v>
       </c>
@@ -2080,7 +2404,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>45036</v>
       </c>
@@ -2099,7 +2423,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>45037</v>
       </c>
@@ -2110,7 +2434,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>45038</v>
       </c>
@@ -2121,7 +2445,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>45039</v>
       </c>
@@ -2132,7 +2456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>45104</v>
       </c>
@@ -2143,7 +2467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="18">
         <v>45105</v>
       </c>
@@ -2154,7 +2478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="18">
         <v>45106</v>
       </c>
@@ -2165,7 +2489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="18">
         <v>45107</v>
       </c>
@@ -2176,7 +2500,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="18">
         <v>45128</v>
       </c>
@@ -2187,7 +2511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="18">
         <v>45198</v>
       </c>
@@ -2198,7 +2522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="18">
         <v>45261</v>
       </c>
@@ -2209,7 +2533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:8" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="18">
         <v>45262</v>
       </c>
@@ -2220,7 +2544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="18">
         <v>45263</v>
       </c>
@@ -2253,7 +2577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2450BDA6-DC0A-4697-9F19-F3EEF189980F}">
   <dimension ref="B2:G17"/>
   <sheetViews>
@@ -2261,19 +2585,19 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="27.1875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F2" s="22"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="2:7" ht="20.65" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
@@ -2287,7 +2611,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="18">
         <v>44927</v>
       </c>
@@ -2298,7 +2622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>45036</v>
       </c>
@@ -2313,7 +2637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>45037</v>
       </c>
@@ -2328,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>45038</v>
       </c>
@@ -2343,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B8" s="18">
         <v>45039</v>
       </c>
@@ -2358,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>45104</v>
       </c>
@@ -2373,7 +2697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="18">
         <v>45105</v>
       </c>
@@ -2388,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="18">
         <v>45106</v>
       </c>
@@ -2403,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="18">
         <v>45107</v>
       </c>
@@ -2418,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="18">
         <v>45128</v>
       </c>
@@ -2433,7 +2757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="18">
         <v>45198</v>
       </c>
@@ -2448,7 +2772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="18">
         <v>45261</v>
       </c>
@@ -2463,7 +2787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="18">
         <v>45262</v>
       </c>
@@ -2478,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="18">
         <v>45263</v>
       </c>
